--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/NetBeansProjects/vickchain/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7AC8B75-5DAC-354E-BA68-D4EB76B2160C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B12939B-50E2-3F47-82CD-AB70E68AEA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="5400" windowWidth="28260" windowHeight="17440" xr2:uid="{93092A34-292D-1742-B925-8536E7A07EB7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -44,18 +44,9 @@
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>FIRST NAME IRI</t>
-  </si>
-  <si>
     <t>LAST NAME</t>
   </si>
   <si>
-    <t>LAST NAME IRI</t>
-  </si>
-  <si>
-    <t>PATIENT IRI</t>
-  </si>
-  <si>
     <t>POSTAL ADDRESS</t>
   </si>
   <si>
@@ -65,20 +56,60 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>AGE</t>
-  </si>
-  <si>
     <t>BIOLOGICAL SEX</t>
+  </si>
+  <si>
+    <t>VACCINE</t>
+  </si>
+  <si>
+    <t>MMR_VACCINE</t>
+  </si>
+  <si>
+    <t>MALE_GENDER</t>
+  </si>
+  <si>
+    <t>FEMALE_GENDER</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Burlington</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Cayman</t>
+  </si>
+  <si>
+    <t>9533 Brighton Way Beverly Hills, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9454 Wilshire Boulevard </t>
+  </si>
+  <si>
+    <t>ab@pm.me</t>
+  </si>
+  <si>
+    <t>bc@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
       <name val="ArialMT"/>
       <family val="2"/>
     </font>
@@ -100,13 +131,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,38 +473,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E44EBCB-CCC3-324F-A5CA-E8ECEC2F69BE}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -478,17 +516,64 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>90210</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>90210</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{B27CD04A-EB3B-FE4F-9924-F0ECAA15DB85}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{5DFE111A-3F65-C247-8AB3-4B75DB68C570}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/NetBeansProjects/vickchain/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B12939B-50E2-3F47-82CD-AB70E68AEA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC258B-FE0A-594A-9D20-D277AAFFEAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="5400" windowWidth="28260" windowHeight="17440" xr2:uid="{93092A34-292D-1742-B925-8536E7A07EB7}"/>
   </bookViews>
@@ -62,15 +62,6 @@
     <t>VACCINE</t>
   </si>
   <si>
-    <t>MMR_VACCINE</t>
-  </si>
-  <si>
-    <t>MALE_GENDER</t>
-  </si>
-  <si>
-    <t>FEMALE_GENDER</t>
-  </si>
-  <si>
     <t>Alice</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>Bob</t>
   </si>
   <si>
-    <t>Cayman</t>
-  </si>
-  <si>
     <t>9533 Brighton Way Beverly Hills, CA</t>
   </si>
   <si>
@@ -93,6 +81,18 @@
   </si>
   <si>
     <t>bc@gmail.com</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000383</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000384</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/VO_0000731</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -522,25 +522,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>90210</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,32 +548,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>90210</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{B27CD04A-EB3B-FE4F-9924-F0ECAA15DB85}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{5DFE111A-3F65-C247-8AB3-4B75DB68C570}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{030501A8-3CFB-0F4A-97AF-8E40A17B6EA8}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{43D849E0-14EA-A64B-B31E-FC5DB10D06D2}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{A9FF5202-B4F6-9D42-B447-1C406534936D}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{8D1F1F8A-CC25-2D4D-A86C-C7675F433355}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>